--- a/Files/0000-1000/6/B6_RequestList.xlsx
+++ b/Files/0000-1000/6/B6_RequestList.xlsx
@@ -97,7 +97,7 @@
     <t>Пърженост</t>
   </si>
   <si>
-    <t>БДС АФФ3</t>
+    <t>БДС 2А3Б</t>
   </si>
   <si>
     <t>123</t>
